--- a/等级锁（已脱敏处理）.xlsx
+++ b/等级锁（已脱敏处理）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25365\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25365\Desktop\策划案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F84BD30-58A4-4FF4-BD63-8DEF46702F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FBCDA-7A3F-4DEF-9052-C1DDAB590BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E080284F-0EC4-40FF-B0B8-8E31C67BD810}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{E080284F-0EC4-40FF-B0B8-8E31C67BD810}"/>
   </bookViews>
   <sheets>
     <sheet name="版本目录" sheetId="1" r:id="rId1"/>
@@ -64,19 +64,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2.3边界判断</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2.降低头部玩家与新玩家等级差距，避免新玩家缺少组队伙伴，提高社交粘性。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3.保证整体玩家群体等级分布合理，方便后续版本进行数值调整、活动策划。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3概述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -178,10 +170,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>根据开服时间，限制玩家最高等级。新增功能入口以查看等级限制说明；到达当前最高等级主动弹出限制说明。并且在玩家到达限制等级时通过邮件发送奖励\补偿</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2功能入口开放条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -195,14 +183,6 @@
   </si>
   <si>
     <t>图二，FTP功能入口游戏内截图；已删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能入口无开放限制，特殊场景（副本内）无法查看</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>无功能引导，触发等级限制时主动弹出；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -255,14 +235,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>将【EXP】按钮与整个经验条作为入口，点击后弹出窗口显示详情；参考疲劳值功能入口与说明。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到达限制等级时通过邮件自动发送奖励，复用邮件系统配置，无需额外开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>已删除</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -283,11 +255,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>相关内容及配置表已删除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>图一、新增EXP功能入口；游戏内截图，已删除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.3功能概述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据开服时间，限制玩家最高等级。新增功能入口以查看等级限制说明；到达设置的限制等级时主动弹出限制说明一次；限制等级时通过邮件发送奖励\补偿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将主界面UI的【EXP】按钮与整个经验条作为入口，点击后弹出窗口显示详情；参考图二疲劳值功能入口与说明。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能入口无开放限制，点击即可查看等级限制说明；特殊场景（副本内）无法点击查看</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能入口无引导，玩家到达限制等级时主动弹出；弹出逻辑同拍脸图，特殊场景不触发弹出；若有多个弹出窗口，层级为最低。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3功能逻辑与边界判定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到达限制等级时通过邮件自动发送奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表一，邮件系统相关内容及配置表已删除</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EECAB6E-FED3-45AB-B2EB-EF88812E17F2}">
   <dimension ref="B5:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -822,44 +822,44 @@
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="E5" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
       <c r="D7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1275AB3D-2FDB-456B-A156-C40A3867E0C9}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -917,12 +917,12 @@
     </row>
     <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
@@ -937,14 +937,14 @@
     </row>
     <row r="11" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
@@ -968,28 +968,30 @@
     </row>
     <row r="17" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="C17" s="7"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" s="7"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="5" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7"/>
       <c r="E20" s="4"/>
@@ -1002,252 +1004,201 @@
     </row>
     <row r="22" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
+      <c r="B22" s="18" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
+      <c r="B24" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="7"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
-      <c r="B25" s="5"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="7"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
-      <c r="B26" s="5"/>
+      <c r="B26" s="18" t="s">
+        <v>7</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
-      <c r="B27" s="5"/>
+      <c r="B27" s="16" t="s">
+        <v>10</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="18" t="s">
-        <v>32</v>
+      <c r="B28" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="C28" s="7"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="15" t="s">
-        <v>33</v>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="7"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B33" s="11"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16" t="s">
-        <v>19</v>
+    <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B34" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="5" t="s">
-        <v>37</v>
+    <row r="35" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C35" s="7"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="6"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="4"/>
+    <row r="36" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B38" s="8"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B41" s="5"/>
-      <c r="C41" s="7"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B43" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B44" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B45" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B48" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-    </row>
-    <row r="58" spans="1:4" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="D61" s="10"/>
-    </row>
-    <row r="62" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B52" s="3"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B53" s="3"/>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B54" s="3"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B55" s="3"/>
+      <c r="D55" s="10"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D64" s="10"/>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="10"/>
-    </row>
-    <row r="76" spans="2:4" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="84" spans="1:2" ht="25.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>41</v>
+    <row r="67" spans="1:2" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="75" spans="1:2" ht="25.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1220,7 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
